--- a/KẾ TOÁN - THÁI HẰNG/SỮA-BỈM NGOÀI.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/SỮA-BỈM NGOÀI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="SỮA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
   <si>
     <t>N</t>
   </si>
@@ -108,12 +108,51 @@
   <si>
     <t>SẢN PHẨM (Bobby)</t>
   </si>
+  <si>
+    <t>SỔ THEO DÕI SỮA</t>
+  </si>
+  <si>
+    <t>Nan Nga (Xanh)</t>
+  </si>
+  <si>
+    <t>Số 1</t>
+  </si>
+  <si>
+    <t>Số 2</t>
+  </si>
+  <si>
+    <t>Số 3</t>
+  </si>
+  <si>
+    <t>Số 4</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Nan úc (Màu nâu)</t>
+  </si>
+  <si>
+    <t>SẢN PHẨM (Nan, Blackmore, Aptamil)</t>
+  </si>
+  <si>
+    <t>Blackmore</t>
+  </si>
+  <si>
+    <t>Aptamil</t>
+  </si>
+  <si>
+    <t>Hikid</t>
+  </si>
+  <si>
+    <t>Thường</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +184,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -211,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -369,11 +415,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -469,13 +546,94 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -484,30 +642,45 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,63 +693,12 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,47 +711,36 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,13 +1022,2913 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AR52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AN13" sqref="AN13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="40" customWidth="1"/>
+    <col min="3" max="4" width="4.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4" style="1" customWidth="1"/>
+    <col min="9" max="10" width="4.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="4.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="4.7109375" style="1" customWidth="1"/>
+    <col min="22" max="23" width="4.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="4.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="17.28515625" style="40" customWidth="1"/>
+    <col min="27" max="40" width="6.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="5" style="1" customWidth="1"/>
+    <col min="42" max="42" width="5.42578125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="9.7109375" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="82"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="82"/>
+      <c r="AR1" s="42"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+    </row>
+    <row r="3" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="99"/>
+      <c r="AL3" s="99"/>
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="99"/>
+      <c r="AO3" s="99"/>
+      <c r="AP3" s="71"/>
+      <c r="AQ3" s="65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="117" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="118"/>
+      <c r="M4" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="114"/>
+      <c r="AP4" s="115"/>
+      <c r="AQ4" s="67"/>
+    </row>
+    <row r="5" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="71"/>
+      <c r="G5" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="73"/>
+      <c r="I5" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="71"/>
+      <c r="K5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="75"/>
+      <c r="M5" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="71"/>
+      <c r="O5" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="77"/>
+      <c r="S5" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="77"/>
+      <c r="U5" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="79"/>
+      <c r="W5" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD5" s="71"/>
+      <c r="AE5" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF5" s="111"/>
+      <c r="AG5" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH5" s="71"/>
+      <c r="AI5" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ5" s="105"/>
+      <c r="AK5" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL5" s="105"/>
+      <c r="AM5" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN5" s="71"/>
+      <c r="AO5" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP5" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ5" s="67"/>
+    </row>
+    <row r="6" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="66"/>
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="66"/>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44141</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="14">
+        <v>3</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="15">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="16">
+        <v>3</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="52">
+        <v>3</v>
+      </c>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="48">
+        <v>3</v>
+      </c>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48">
+        <v>2</v>
+      </c>
+      <c r="T7" s="48"/>
+      <c r="U7" s="44">
+        <v>1</v>
+      </c>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44">
+        <v>3</v>
+      </c>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="4">
+        <v>44141</v>
+      </c>
+      <c r="Z7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3">
+        <f>D7+F7+H7+J7+L7+N7+R7+V7+AB7+AD7+AF7+AH7+AJ7+AN7+P7+AL7</f>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="3">
+        <f>C7+E7+G7+I7+K7+M7+Q7+U7+AA7+AC7+AE7+AG7+AI7+AM7+O7+AK7</f>
+        <v>20</v>
+      </c>
+      <c r="AQ7" s="3"/>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="3">
+        <f>D8+F8+H8+J8+L8+N8+R8+V8+AB8+AD8+AF8+AH8+AJ8+AN8+P8+AL8</f>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="3">
+        <f>C8+E8+G8+I8+K8+M8+Q8+U8+AA8+AC8+AE8+AG8+AI8+AM8+O8+AK8</f>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="5"/>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="3">
+        <f>D9+F9+H9+J9+L9+N9+R9+V9+AB9+AD9+AF9+AH9+AJ9+AN9+P9+AL9</f>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3">
+        <f>C9+E9+G9+I9+K9+M9+Q9+U9+AA9+AC9+AE9+AG9+AI9+AM9+O9+AK9</f>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="5"/>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="3">
+        <f>D10+F10+H10+J10+L10+N10+R10+V10+AB10+AD10+AF10+AH10+AJ10+AN10+P10+AL10</f>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="3">
+        <f>C10+E10+G10+I10+K10+M10+Q10+U10+AA10+AC10+AE10+AG10+AI10+AM10+O10+AK10</f>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="5"/>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="3">
+        <f>D11+F11+H11+J11+L11+N11+R11+V11+AB11+AD11+AF11+AH11+AJ11+AN11+P11+AL11</f>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="3">
+        <f>C11+E11+G11+I11+K11+M11+Q11+U11+AA11+AC11+AE11+AG11+AI11+AM11+O11+AK11</f>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="5"/>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="3">
+        <f>D12+F12+H12+J12+L12+N12+R12+V12+AB12+AD12+AF12+AH12+AJ12+AN12+P12+AL12</f>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="3">
+        <f>C12+E12+G12+I12+K12+M12+Q12+U12+AA12+AC12+AE12+AG12+AI12+AM12+O12+AK12</f>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="5"/>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="3">
+        <f>D13+F13+H13+J13+L13+N13+R13+V13+AB13+AD13+AF13+AH13+AJ13+AN13+P13+AL13</f>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="3">
+        <f>C13+E13+G13+I13+K13+M13+Q13+U13+AA13+AC13+AE13+AG13+AI13+AM13+O13+AK13</f>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="5"/>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="3">
+        <f>D14+F14+H14+J14+L14+N14+R14+V14+AB14+AD14+AF14+AH14+AJ14+AN14+P14+AL14</f>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="3">
+        <f>C14+E14+G14+I14+K14+M14+Q14+U14+AA14+AC14+AE14+AG14+AI14+AM14+O14+AK14</f>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="5"/>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="3">
+        <f>D15+F15+H15+J15+L15+N15+R15+V15+AB15+AD15+AF15+AH15+AJ15+AN15+P15+AL15</f>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="3">
+        <f>C15+E15+G15+I15+K15+M15+Q15+U15+AA15+AC15+AE15+AG15+AI15+AM15+O15+AK15</f>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="5"/>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="3">
+        <f>D16+F16+H16+J16+L16+N16+R16+V16+AB16+AD16+AF16+AH16+AJ16+AN16+P16+AL16</f>
+        <v>0</v>
+      </c>
+      <c r="AP16" s="3">
+        <f>C16+E16+G16+I16+K16+M16+Q16+U16+AA16+AC16+AE16+AG16+AI16+AM16+O16+AK16</f>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="5"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="3">
+        <f>D17+F17+H17+J17+L17+N17+R17+V17+AB17+AD17+AF17+AH17+AJ17+AN17+P17+AL17</f>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="3">
+        <f>C17+E17+G17+I17+K17+M17+Q17+U17+AA17+AC17+AE17+AG17+AI17+AM17+O17+AK17</f>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="5"/>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="3">
+        <f>D18+F18+H18+J18+L18+N18+R18+V18+AB18+AD18+AF18+AH18+AJ18+AN18+P18+AL18</f>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="3">
+        <f>C18+E18+G18+I18+K18+M18+Q18+U18+AA18+AC18+AE18+AG18+AI18+AM18+O18+AK18</f>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="5"/>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="3">
+        <f>D19+F19+H19+J19+L19+N19+R19+V19+AB19+AD19+AF19+AH19+AJ19+AN19+P19+AL19</f>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="3">
+        <f>C19+E19+G19+I19+K19+M19+Q19+U19+AA19+AC19+AE19+AG19+AI19+AM19+O19+AK19</f>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="5"/>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="3">
+        <f>D20+F20+H20+J20+L20+N20+R20+V20+AB20+AD20+AF20+AH20+AJ20+AN20+P20+AL20</f>
+        <v>0</v>
+      </c>
+      <c r="AP20" s="3">
+        <f>C20+E20+G20+I20+K20+M20+Q20+U20+AA20+AC20+AE20+AG20+AI20+AM20+O20+AK20</f>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="5"/>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="3">
+        <f>D21+F21+H21+J21+L21+N21+R21+V21+AB21+AD21+AF21+AH21+AJ21+AN21+P21+AL21</f>
+        <v>0</v>
+      </c>
+      <c r="AP21" s="3">
+        <f>C21+E21+G21+I21+K21+M21+Q21+U21+AA21+AC21+AE21+AG21+AI21+AM21+O21+AK21</f>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="5"/>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="3">
+        <f>D22+F22+H22+J22+L22+N22+R22+V22+AB22+AD22+AF22+AH22+AJ22+AN22+P22+AL22</f>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="3">
+        <f>C22+E22+G22+I22+K22+M22+Q22+U22+AA22+AC22+AE22+AG22+AI22+AM22+O22+AK22</f>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="5"/>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="3">
+        <f>D23+F23+H23+J23+L23+N23+R23+V23+AB23+AD23+AF23+AH23+AJ23+AN23+P23+AL23</f>
+        <v>0</v>
+      </c>
+      <c r="AP23" s="3">
+        <f>C23+E23+G23+I23+K23+M23+Q23+U23+AA23+AC23+AE23+AG23+AI23+AM23+O23+AK23</f>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="5"/>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="3">
+        <f>D24+F24+H24+J24+L24+N24+R24+V24+AB24+AD24+AF24+AH24+AJ24+AN24+P24+AL24</f>
+        <v>0</v>
+      </c>
+      <c r="AP24" s="3">
+        <f>C24+E24+G24+I24+K24+M24+Q24+U24+AA24+AC24+AE24+AG24+AI24+AM24+O24+AK24</f>
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="5"/>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="3">
+        <f>D25+F25+H25+J25+L25+N25+R25+V25+AB25+AD25+AF25+AH25+AJ25+AN25+P25+AL25</f>
+        <v>0</v>
+      </c>
+      <c r="AP25" s="3">
+        <f>C25+E25+G25+I25+K25+M25+Q25+U25+AA25+AC25+AE25+AG25+AI25+AM25+O25+AK25</f>
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="5"/>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="3">
+        <f>D26+F26+H26+J26+L26+N26+R26+V26+AB26+AD26+AF26+AH26+AJ26+AN26+P26+AL26</f>
+        <v>0</v>
+      </c>
+      <c r="AP26" s="3">
+        <f>C26+E26+G26+I26+K26+M26+Q26+U26+AA26+AC26+AE26+AG26+AI26+AM26+O26+AK26</f>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="5"/>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="3">
+        <f>D27+F27+H27+J27+L27+N27+R27+V27+AB27+AD27+AF27+AH27+AJ27+AN27+P27+AL27</f>
+        <v>0</v>
+      </c>
+      <c r="AP27" s="3">
+        <f>C27+E27+G27+I27+K27+M27+Q27+U27+AA27+AC27+AE27+AG27+AI27+AM27+O27+AK27</f>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="5"/>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="3">
+        <f>D28+F28+H28+J28+L28+N28+R28+V28+AB28+AD28+AF28+AH28+AJ28+AN28+P28+AL28</f>
+        <v>0</v>
+      </c>
+      <c r="AP28" s="3">
+        <f>C28+E28+G28+I28+K28+M28+Q28+U28+AA28+AC28+AE28+AG28+AI28+AM28+O28+AK28</f>
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="5"/>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="3">
+        <f>D29+F29+H29+J29+L29+N29+R29+V29+AB29+AD29+AF29+AH29+AJ29+AN29+P29+AL29</f>
+        <v>0</v>
+      </c>
+      <c r="AP29" s="3">
+        <f>C29+E29+G29+I29+K29+M29+Q29+U29+AA29+AC29+AE29+AG29+AI29+AM29+O29+AK29</f>
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="5"/>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="3">
+        <f>D30+F30+H30+J30+L30+N30+R30+V30+AB30+AD30+AF30+AH30+AJ30+AN30+P30+AL30</f>
+        <v>0</v>
+      </c>
+      <c r="AP30" s="3">
+        <f>C30+E30+G30+I30+K30+M30+Q30+U30+AA30+AC30+AE30+AG30+AI30+AM30+O30+AK30</f>
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="5"/>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="3">
+        <f>D31+F31+H31+J31+L31+N31+R31+V31+AB31+AD31+AF31+AH31+AJ31+AN31+P31+AL31</f>
+        <v>0</v>
+      </c>
+      <c r="AP31" s="3">
+        <f>C31+E31+G31+I31+K31+M31+Q31+U31+AA31+AC31+AE31+AG31+AI31+AM31+O31+AK31</f>
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="5"/>
+    </row>
+    <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="27"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="3">
+        <f>D32+F32+H32+J32+L32+N32+R32+V32+AB32+AD32+AF32+AH32+AJ32+AN32+P32+AL32</f>
+        <v>0</v>
+      </c>
+      <c r="AP32" s="3">
+        <f>C32+E32+G32+I32+K32+M32+Q32+U32+AA32+AC32+AE32+AG32+AI32+AM32+O32+AK32</f>
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="5"/>
+    </row>
+    <row r="33" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="3">
+        <f>D33+F33+H33+J33+L33+N33+R33+V33+AB33+AD33+AF33+AH33+AJ33+AN33</f>
+        <v>0</v>
+      </c>
+      <c r="AP33" s="3">
+        <f>C33+E33+G33+I33+K33+M33+Q33+U33+AA33+AC33+AE33+AG33+AI33+AM33+O33+AK33</f>
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="5"/>
+    </row>
+    <row r="34" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="27"/>
+      <c r="AJ34" s="27"/>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="27"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="3">
+        <f>D34+F34+H34+J34+L34+N34+R34+V34+AB34+AD34+AF34+AH34+AJ34+AN34</f>
+        <v>0</v>
+      </c>
+      <c r="AP34" s="3">
+        <f>C34+E34+G34+I34+K34+M34+Q34+U34+AA34+AC34+AE34+AG34+AI34+AM34+O34+AK34</f>
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="5"/>
+    </row>
+    <row r="35" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="27"/>
+      <c r="AJ35" s="27"/>
+      <c r="AK35" s="27"/>
+      <c r="AL35" s="27"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="3">
+        <f>D35+F35+H35+J35+L35+N35+R35+V35+AB35+AD35+AF35+AH35+AJ35+AN35</f>
+        <v>0</v>
+      </c>
+      <c r="AP35" s="3">
+        <f>C35+E35+G35+I35+K35+M35+Q35+U35+AA35+AC35+AE35+AG35+AI35+AM35+O35+AK35</f>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="5"/>
+    </row>
+    <row r="36" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="27"/>
+      <c r="AJ36" s="27"/>
+      <c r="AK36" s="27"/>
+      <c r="AL36" s="27"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="3">
+        <f>D36+F36+H36+J36+L36+N36+R36+V36+AB36+AD36+AF36+AH36+AJ36+AN36</f>
+        <v>0</v>
+      </c>
+      <c r="AP36" s="3">
+        <f>C36+E36+G36+I36+K36+M36+Q36+U36+AA36+AC36+AE36+AG36+AI36+AM36+O36+AK36</f>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="5"/>
+    </row>
+    <row r="37" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="27"/>
+      <c r="AJ37" s="27"/>
+      <c r="AK37" s="27"/>
+      <c r="AL37" s="27"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="3">
+        <f>D37+F37+H37+J37+L37+N37+R37+V37+AB37+AD37+AF37+AH37+AJ37+AN37</f>
+        <v>0</v>
+      </c>
+      <c r="AP37" s="3">
+        <f>C37+E37+G37+I37+K37+M37+Q37+U37+AA37+AC37+AE37+AG37+AI37+AM37+O37+AK37</f>
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="5"/>
+    </row>
+    <row r="38" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="27"/>
+      <c r="AJ38" s="27"/>
+      <c r="AK38" s="27"/>
+      <c r="AL38" s="27"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="3">
+        <f>D38+F38+H38+J38+L38+N38+R38+V38+AB38+AD38+AF38+AH38+AJ38+AN38</f>
+        <v>0</v>
+      </c>
+      <c r="AP38" s="3">
+        <f>C38+E38+G38+I38+K38+M38+Q38+U38+AA38+AC38+AE38+AG38+AI38+AM38+O38+AK38</f>
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="5"/>
+    </row>
+    <row r="39" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="27"/>
+      <c r="AJ39" s="27"/>
+      <c r="AK39" s="27"/>
+      <c r="AL39" s="27"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="3">
+        <f>D39+F39+H39+J39+L39+N39+R39+V39+AB39+AD39+AF39+AH39+AJ39+AN39</f>
+        <v>0</v>
+      </c>
+      <c r="AP39" s="3">
+        <f>C39+E39+G39+I39+K39+M39+Q39+U39+AA39+AC39+AE39+AG39+AI39+AM39+O39+AK39</f>
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="5"/>
+    </row>
+    <row r="40" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="27"/>
+      <c r="AJ40" s="27"/>
+      <c r="AK40" s="27"/>
+      <c r="AL40" s="27"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="3">
+        <f>D40+F40+H40+J40+L40+N40+R40+V40+AB40+AD40+AF40+AH40+AJ40+AN40</f>
+        <v>0</v>
+      </c>
+      <c r="AP40" s="3">
+        <f>C40+E40+G40+I40+K40+M40+Q40+U40+AA40+AC40+AE40+AG40+AI40+AM40+O40+AK40</f>
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="5"/>
+    </row>
+    <row r="41" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="31"/>
+      <c r="AH41" s="31"/>
+      <c r="AI41" s="36"/>
+      <c r="AJ41" s="36"/>
+      <c r="AK41" s="36"/>
+      <c r="AL41" s="36"/>
+      <c r="AM41" s="31"/>
+      <c r="AN41" s="31"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3">
+        <f>C41+E41+G41+I41+K41+M41+Q41+U41+AA41+AC41+AE41+AG41+AI41+AM41+O41+AK41</f>
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="31"/>
+    </row>
+    <row r="42" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="31"/>
+      <c r="AD42" s="31"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="31"/>
+      <c r="AH42" s="31"/>
+      <c r="AI42" s="36"/>
+      <c r="AJ42" s="36"/>
+      <c r="AK42" s="36"/>
+      <c r="AL42" s="36"/>
+      <c r="AM42" s="31"/>
+      <c r="AN42" s="31"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3">
+        <f>C42+E42+G42+I42+K42+M42+Q42+U42+AA42+AC42+AE42+AG42+AI42+AM42+O42+AK42</f>
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="31"/>
+    </row>
+    <row r="43" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="37"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="31"/>
+      <c r="AD43" s="31"/>
+      <c r="AE43" s="35"/>
+      <c r="AF43" s="35"/>
+      <c r="AG43" s="31"/>
+      <c r="AH43" s="31"/>
+      <c r="AI43" s="36"/>
+      <c r="AJ43" s="36"/>
+      <c r="AK43" s="36"/>
+      <c r="AL43" s="36"/>
+      <c r="AM43" s="31"/>
+      <c r="AN43" s="31"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3">
+        <f>C43+E43+G43+I43+K43+M43+Q43+U43+AA43+AC43+AE43+AG43+AI43+AM43+O43+AK43</f>
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="31"/>
+    </row>
+    <row r="44" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="46"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+      <c r="AE44" s="35"/>
+      <c r="AF44" s="35"/>
+      <c r="AG44" s="31"/>
+      <c r="AH44" s="31"/>
+      <c r="AI44" s="36"/>
+      <c r="AJ44" s="36"/>
+      <c r="AK44" s="36"/>
+      <c r="AL44" s="36"/>
+      <c r="AM44" s="31"/>
+      <c r="AN44" s="31"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="3">
+        <f>C44+E44+G44+I44+K44+M44+Q44+U44+AA44+AC44+AE44+AG44+AI44+AM44+O44+AK44</f>
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="31"/>
+    </row>
+    <row r="45" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="50"/>
+      <c r="S45" s="50"/>
+      <c r="T45" s="50"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="46"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="31"/>
+      <c r="AE45" s="35"/>
+      <c r="AF45" s="35"/>
+      <c r="AG45" s="31"/>
+      <c r="AH45" s="31"/>
+      <c r="AI45" s="36"/>
+      <c r="AJ45" s="36"/>
+      <c r="AK45" s="36"/>
+      <c r="AL45" s="36"/>
+      <c r="AM45" s="31"/>
+      <c r="AN45" s="31"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="3">
+        <f>C45+E45+G45+I45+K45+M45+Q45+U45+AA45+AC45+AE45+AG45+AI45+AM45+O45+AK45</f>
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="31"/>
+    </row>
+    <row r="46" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="46"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="31"/>
+      <c r="AD46" s="31"/>
+      <c r="AE46" s="35"/>
+      <c r="AF46" s="35"/>
+      <c r="AG46" s="31"/>
+      <c r="AH46" s="31"/>
+      <c r="AI46" s="36"/>
+      <c r="AJ46" s="36"/>
+      <c r="AK46" s="36"/>
+      <c r="AL46" s="36"/>
+      <c r="AM46" s="31"/>
+      <c r="AN46" s="31"/>
+      <c r="AO46" s="3"/>
+      <c r="AP46" s="3">
+        <f>C46+E46+G46+I46+K46+M46+Q46+U46+AA46+AC46+AE46+AG46+AI46+AM46+O46+AK46</f>
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="31"/>
+    </row>
+    <row r="47" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="50"/>
+      <c r="T47" s="50"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="37"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="31"/>
+      <c r="AD47" s="31"/>
+      <c r="AE47" s="35"/>
+      <c r="AF47" s="35"/>
+      <c r="AG47" s="31"/>
+      <c r="AH47" s="31"/>
+      <c r="AI47" s="36"/>
+      <c r="AJ47" s="36"/>
+      <c r="AK47" s="36"/>
+      <c r="AL47" s="36"/>
+      <c r="AM47" s="31"/>
+      <c r="AN47" s="31"/>
+      <c r="AO47" s="3">
+        <f>D47+F47+H47+J47+L47+N47+R47+V47+AB47+AD47+AF47+AH47+AJ47+AN47</f>
+        <v>0</v>
+      </c>
+      <c r="AP47" s="3">
+        <f>C47+E47+G47+I47+K47+M47+Q47+U47+AA47+AC47+AE47+AG47+AI47+AM47+O47+AK47</f>
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="31"/>
+    </row>
+    <row r="48" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="50"/>
+      <c r="T48" s="50"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="46"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="37"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="31"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="35"/>
+      <c r="AG48" s="31"/>
+      <c r="AH48" s="31"/>
+      <c r="AI48" s="36"/>
+      <c r="AJ48" s="36"/>
+      <c r="AK48" s="36"/>
+      <c r="AL48" s="36"/>
+      <c r="AM48" s="31"/>
+      <c r="AN48" s="31"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3">
+        <f>C48+E48+G48+I48+K48+M48+Q48+U48+AA48+AC48+AE48+AG48+AI48+AM48+O48+AK48</f>
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="31"/>
+    </row>
+    <row r="49" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="50"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="37"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="31"/>
+      <c r="AD49" s="31"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="31"/>
+      <c r="AH49" s="31"/>
+      <c r="AI49" s="36"/>
+      <c r="AJ49" s="36"/>
+      <c r="AK49" s="36"/>
+      <c r="AL49" s="36"/>
+      <c r="AM49" s="31"/>
+      <c r="AN49" s="31"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3">
+        <f>C49+E49+G49+I49+K49+M49+Q49+U49+AA49+AC49+AE49+AG49+AI49+AM49+O49+AK49</f>
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="31"/>
+    </row>
+    <row r="50" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="46"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="37"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="31"/>
+      <c r="AD50" s="31"/>
+      <c r="AE50" s="35"/>
+      <c r="AF50" s="35"/>
+      <c r="AG50" s="31"/>
+      <c r="AH50" s="31"/>
+      <c r="AI50" s="36"/>
+      <c r="AJ50" s="36"/>
+      <c r="AK50" s="36"/>
+      <c r="AL50" s="36"/>
+      <c r="AM50" s="31"/>
+      <c r="AN50" s="31"/>
+      <c r="AO50" s="3">
+        <f>D50+F50+H50+J50+L50+N50+R50+V50+AB50+AD50+AF50+AH50+AJ50+AN50</f>
+        <v>0</v>
+      </c>
+      <c r="AP50" s="3">
+        <f>C50+E50+G50+I50+K50+M50+Q50+U50+AA50+AC50+AE50+AG50+AI50+AM50+O50+AK50</f>
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="31"/>
+    </row>
+    <row r="51" spans="1:43" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="89">
+        <f>SUM(C6:C50)-SUM(D6:D50)</f>
+        <v>3</v>
+      </c>
+      <c r="D51" s="90"/>
+      <c r="E51" s="83">
+        <f>SUM(E6:E50)-SUM(F6:F50)</f>
+        <v>1</v>
+      </c>
+      <c r="F51" s="84"/>
+      <c r="G51" s="91">
+        <f>SUM(G6:G50)-SUM(H6:H50)</f>
+        <v>2</v>
+      </c>
+      <c r="H51" s="92"/>
+      <c r="I51" s="83">
+        <f>SUM(I6:I50)-SUM(J7:J51)</f>
+        <v>3</v>
+      </c>
+      <c r="J51" s="84"/>
+      <c r="K51" s="93">
+        <f>SUM(K6:K50)-SUM(L6:L50)</f>
+        <v>3</v>
+      </c>
+      <c r="L51" s="94"/>
+      <c r="M51" s="83">
+        <f>SUM(M6:M50)-SUM(N6:N50)</f>
+        <v>1</v>
+      </c>
+      <c r="N51" s="84"/>
+      <c r="O51" s="100">
+        <f>SUM(O7:O32)-SUM(P7:P32)</f>
+        <v>3</v>
+      </c>
+      <c r="P51" s="101"/>
+      <c r="Q51" s="95">
+        <f>SUM(Q6:Q50)-SUM(R6:R50)</f>
+        <v>3</v>
+      </c>
+      <c r="R51" s="96"/>
+      <c r="S51" s="119"/>
+      <c r="T51" s="119"/>
+      <c r="U51" s="97">
+        <f>SUM(U6:U50)-SUM(V6:V50)</f>
+        <v>1</v>
+      </c>
+      <c r="V51" s="98"/>
+      <c r="W51" s="97">
+        <f>SUM(W6:W50)-SUM(X6:X50)</f>
+        <v>3</v>
+      </c>
+      <c r="X51" s="98"/>
+      <c r="Y51" s="38"/>
+      <c r="Z51" s="39"/>
+      <c r="AA51" s="108">
+        <f>SUM(AA6:AA50)-SUM(AB6:AB50)</f>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="109"/>
+      <c r="AC51" s="83">
+        <f>SUM(AC6:AC50)-SUM(AD6:AD50)</f>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="84"/>
+      <c r="AE51" s="85">
+        <f>SUM(AE6:AE50)-SUM(AF6:AF50)</f>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="86"/>
+      <c r="AG51" s="83">
+        <f>SUM(AG6:AG50)-SUM(AH6:AH50)</f>
+        <v>0</v>
+      </c>
+      <c r="AH51" s="84"/>
+      <c r="AI51" s="87">
+        <f>SUM(AI6:AI50)-SUM(AJ6:AJ50)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="88"/>
+      <c r="AK51" s="87">
+        <f>SUM(AK7:AK32)-SUM(AL7:AL32)</f>
+        <v>0</v>
+      </c>
+      <c r="AL51" s="88"/>
+      <c r="AM51" s="83">
+        <f>SUM(AM6:AM50)-SUM(AN6:AN50)</f>
+        <v>0</v>
+      </c>
+      <c r="AN51" s="84"/>
+      <c r="AO51" s="112">
+        <f>SUM(AO7:AO50)</f>
+        <v>0</v>
+      </c>
+      <c r="AP51" s="112">
+        <f>SUM(AP7:AP50)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="107"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="107"/>
+      <c r="L52" s="107"/>
+      <c r="M52" s="107"/>
+      <c r="N52" s="107"/>
+      <c r="O52" s="107"/>
+      <c r="P52" s="107"/>
+      <c r="Q52" s="107"/>
+      <c r="R52" s="107"/>
+      <c r="S52" s="107"/>
+      <c r="T52" s="107"/>
+      <c r="U52" s="107"/>
+      <c r="V52" s="107"/>
+      <c r="W52" s="107"/>
+      <c r="X52" s="107"/>
+      <c r="Y52" s="107"/>
+      <c r="Z52" s="107"/>
+      <c r="AA52" s="107"/>
+      <c r="AB52" s="107"/>
+      <c r="AC52" s="107"/>
+      <c r="AD52" s="107"/>
+      <c r="AE52" s="107"/>
+      <c r="AF52" s="107"/>
+      <c r="AG52" s="107"/>
+      <c r="AH52" s="107"/>
+      <c r="AI52" s="107"/>
+      <c r="AJ52" s="107"/>
+      <c r="AK52" s="107"/>
+      <c r="AL52" s="107"/>
+      <c r="AM52" s="107"/>
+      <c r="AN52" s="107"/>
+      <c r="AO52" s="113">
+        <f>AP51-AO51</f>
+        <v>20</v>
+      </c>
+      <c r="AP52" s="113"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="C3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AM51:AN51"/>
+    <mergeCell ref="A52:AN52"/>
+    <mergeCell ref="AO52:AP52"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="AA51:AB51"/>
+    <mergeCell ref="AC51:AD51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="U1:AQ1"/>
+    <mergeCell ref="A2:AN2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="Y3:Y6"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="AA3:AP3"/>
+    <mergeCell ref="AQ3:AQ6"/>
+  </mergeCells>
+  <pageMargins left="0.42" right="0.35" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -925,8 +3936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:X4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +3951,10 @@
     <col min="9" max="10" width="5.5703125" style="1" customWidth="1"/>
     <col min="11" max="12" width="5.7109375" style="1" customWidth="1"/>
     <col min="13" max="14" width="6" style="1" customWidth="1"/>
-    <col min="15" max="20" width="6.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16" width="6.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="1" customWidth="1"/>
+    <col min="19" max="20" width="6.7109375" style="1" customWidth="1"/>
     <col min="21" max="21" width="9.85546875" style="2" customWidth="1"/>
     <col min="22" max="22" width="17.28515625" style="40" customWidth="1"/>
     <col min="23" max="36" width="6.7109375" style="1" customWidth="1"/>
@@ -950,227 +3965,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
       <c r="AN1" s="42"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="110"/>
-      <c r="AH2" s="110"/>
-      <c r="AI2" s="110"/>
-      <c r="AJ2" s="110"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
       <c r="AK2" s="6"/>
       <c r="AL2" s="6"/>
       <c r="AM2" s="6"/>
     </row>
     <row r="3" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="64" t="s">
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="67" t="s">
+      <c r="V3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="55" t="s">
+      <c r="W3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="81" t="s">
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="99"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="65" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="98" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="55" t="s">
+      <c r="D4" s="69"/>
+      <c r="E4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="100" t="s">
+      <c r="F4" s="71"/>
+      <c r="G4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="101"/>
-      <c r="I4" s="55" t="s">
+      <c r="H4" s="73"/>
+      <c r="I4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="102" t="s">
+      <c r="J4" s="71"/>
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="55" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="57"/>
-      <c r="O4" s="70" t="s">
+      <c r="N4" s="71"/>
+      <c r="O4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="104" t="s">
+      <c r="P4" s="103"/>
+      <c r="Q4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="105"/>
-      <c r="S4" s="106" t="s">
+      <c r="R4" s="77"/>
+      <c r="S4" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="107"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="108" t="s">
+      <c r="T4" s="79"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="55" t="s">
+      <c r="X4" s="81"/>
+      <c r="Y4" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="95" t="s">
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="55" t="s">
+      <c r="AB4" s="111"/>
+      <c r="AC4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="72" t="s">
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="72" t="s">
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="AH4" s="73"/>
-      <c r="AI4" s="55" t="s">
+      <c r="AH4" s="105"/>
+      <c r="AI4" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="81" t="s">
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AL4" s="81" t="s">
+      <c r="AL4" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="AM4" s="97"/>
+      <c r="AM4" s="67"/>
     </row>
     <row r="5" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="69"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1225,8 +4240,8 @@
       <c r="T5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="U5" s="66"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="11" t="s">
         <v>0</v>
       </c>
@@ -1269,9 +4284,9 @@
       <c r="AJ5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="82"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -2530,7 +5545,7 @@
       </c>
       <c r="AM30" s="5"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -3399,161 +6414,162 @@
       </c>
       <c r="AM49" s="31"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="39"/>
-      <c r="C50" s="83">
+      <c r="C50" s="89">
         <f>SUM(C5:C49)-SUM(D5:D49)</f>
         <v>3</v>
       </c>
-      <c r="D50" s="84"/>
-      <c r="E50" s="75">
+      <c r="D50" s="90"/>
+      <c r="E50" s="83">
         <f>SUM(E5:E49)-SUM(F5:F49)</f>
         <v>1</v>
       </c>
-      <c r="F50" s="76"/>
-      <c r="G50" s="85">
+      <c r="F50" s="84"/>
+      <c r="G50" s="91">
         <f>SUM(G5:G49)-SUM(H5:H49)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="86"/>
-      <c r="I50" s="75">
+      <c r="H50" s="92"/>
+      <c r="I50" s="83">
         <f>SUM(I5:I49)-SUM(J6:J50)</f>
         <v>2</v>
       </c>
-      <c r="J50" s="76"/>
-      <c r="K50" s="87">
+      <c r="J50" s="84"/>
+      <c r="K50" s="93">
         <f>SUM(K5:K49)-SUM(L5:L49)</f>
         <v>2</v>
       </c>
-      <c r="L50" s="88"/>
-      <c r="M50" s="75">
+      <c r="L50" s="94"/>
+      <c r="M50" s="83">
         <f>SUM(M5:M49)-SUM(N5:N49)</f>
         <v>1</v>
       </c>
-      <c r="N50" s="76"/>
-      <c r="O50" s="62">
+      <c r="N50" s="84"/>
+      <c r="O50" s="100">
         <f>SUM(O6:O31)-SUM(P6:P31)</f>
         <v>0</v>
       </c>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="89">
+      <c r="P50" s="101"/>
+      <c r="Q50" s="95">
         <f>SUM(Q5:Q49)-SUM(R5:R49)</f>
         <v>1</v>
       </c>
-      <c r="R50" s="90"/>
-      <c r="S50" s="91">
+      <c r="R50" s="96"/>
+      <c r="S50" s="97">
         <f>SUM(S5:S49)-SUM(T5:T49)</f>
         <v>1</v>
       </c>
-      <c r="T50" s="92"/>
+      <c r="T50" s="98"/>
       <c r="U50" s="38"/>
       <c r="V50" s="39"/>
-      <c r="W50" s="93">
+      <c r="W50" s="108">
         <f>SUM(W5:W49)-SUM(X5:X49)</f>
         <v>2</v>
       </c>
-      <c r="X50" s="94"/>
-      <c r="Y50" s="75">
+      <c r="X50" s="109"/>
+      <c r="Y50" s="83">
         <f>SUM(Y5:Y49)-SUM(Z5:Z49)</f>
         <v>1</v>
       </c>
-      <c r="Z50" s="76"/>
-      <c r="AA50" s="77">
+      <c r="Z50" s="84"/>
+      <c r="AA50" s="85">
         <f>SUM(AA5:AA49)-SUM(AB5:AB49)</f>
         <v>1</v>
       </c>
-      <c r="AB50" s="78"/>
-      <c r="AC50" s="75">
+      <c r="AB50" s="86"/>
+      <c r="AC50" s="83">
         <f>SUM(AC5:AC49)-SUM(AD5:AD49)</f>
         <v>2</v>
       </c>
-      <c r="AD50" s="76"/>
-      <c r="AE50" s="60">
+      <c r="AD50" s="84"/>
+      <c r="AE50" s="87">
         <f>SUM(AE5:AE49)-SUM(AF5:AF49)</f>
         <v>1</v>
       </c>
-      <c r="AF50" s="61"/>
-      <c r="AG50" s="60">
+      <c r="AF50" s="88"/>
+      <c r="AG50" s="87">
         <f>SUM(AG6:AG31)-SUM(AH6:AH31)</f>
         <v>0</v>
       </c>
-      <c r="AH50" s="61"/>
-      <c r="AI50" s="75">
+      <c r="AH50" s="88"/>
+      <c r="AI50" s="83">
         <f>SUM(AI5:AI49)-SUM(AJ5:AJ49)</f>
         <v>1</v>
       </c>
-      <c r="AJ50" s="76"/>
-      <c r="AK50" s="3">
+      <c r="AJ50" s="84"/>
+      <c r="AK50" s="112">
         <f>SUM(AK6:AK49)</f>
         <v>7</v>
       </c>
-      <c r="AL50" s="3">
+      <c r="AL50" s="112">
         <f>SUM(AL6:AL49)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A51" s="79" t="s">
+    <row r="51" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="80"/>
-      <c r="N51" s="80"/>
-      <c r="O51" s="80"/>
-      <c r="P51" s="80"/>
-      <c r="Q51" s="80"/>
-      <c r="R51" s="80"/>
-      <c r="S51" s="80"/>
-      <c r="T51" s="80"/>
-      <c r="U51" s="80"/>
-      <c r="V51" s="80"/>
-      <c r="W51" s="80"/>
-      <c r="X51" s="80"/>
-      <c r="Y51" s="80"/>
-      <c r="Z51" s="80"/>
-      <c r="AA51" s="80"/>
-      <c r="AB51" s="80"/>
-      <c r="AC51" s="80"/>
-      <c r="AD51" s="80"/>
-      <c r="AE51" s="80"/>
-      <c r="AF51" s="80"/>
-      <c r="AG51" s="80"/>
-      <c r="AH51" s="80"/>
-      <c r="AI51" s="80"/>
-      <c r="AJ51" s="80"/>
-      <c r="AK51" s="58">
+      <c r="B51" s="107"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
+      <c r="J51" s="107"/>
+      <c r="K51" s="107"/>
+      <c r="L51" s="107"/>
+      <c r="M51" s="107"/>
+      <c r="N51" s="107"/>
+      <c r="O51" s="107"/>
+      <c r="P51" s="107"/>
+      <c r="Q51" s="107"/>
+      <c r="R51" s="107"/>
+      <c r="S51" s="107"/>
+      <c r="T51" s="107"/>
+      <c r="U51" s="107"/>
+      <c r="V51" s="107"/>
+      <c r="W51" s="107"/>
+      <c r="X51" s="107"/>
+      <c r="Y51" s="107"/>
+      <c r="Z51" s="107"/>
+      <c r="AA51" s="107"/>
+      <c r="AB51" s="107"/>
+      <c r="AC51" s="107"/>
+      <c r="AD51" s="107"/>
+      <c r="AE51" s="107"/>
+      <c r="AF51" s="107"/>
+      <c r="AG51" s="107"/>
+      <c r="AH51" s="107"/>
+      <c r="AI51" s="107"/>
+      <c r="AJ51" s="107"/>
+      <c r="AK51" s="113">
         <f>AL50-AK50</f>
         <v>19</v>
       </c>
-      <c r="AL51" s="59"/>
+      <c r="AL51" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A2:AJ2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AM3:AM5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="C3:T3"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="A51:AJ51"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="S1:AM1"/>
     <mergeCell ref="Y50:Z50"/>
@@ -3570,24 +6586,23 @@
     <mergeCell ref="M50:N50"/>
     <mergeCell ref="Q50:R50"/>
     <mergeCell ref="S50:T50"/>
+    <mergeCell ref="A2:AJ2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AM3:AM5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="W3:AL3"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="C3:T3"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="A51:AJ51"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AI4:AJ4"/>
   </mergeCells>
   <pageMargins left="0.12" right="0" top="0.36" bottom="0.43" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>